--- a/children/StructureDefinition-klgateway-children-headcircum.xlsx
+++ b/children/StructureDefinition-klgateway-children-headcircum.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-headcircum.xlsx
+++ b/children/StructureDefinition-klgateway-children-headcircum.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/StructureDefinition-klgateway-children-headcircum.xlsx
+++ b/children/StructureDefinition-klgateway-children-headcircum.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1301,49 +1301,53 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -2209,10 +2213,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -11727,7 +11727,7 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>414</v>
@@ -11823,10 +11823,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11941,10 +11941,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12061,10 +12061,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12087,19 +12087,19 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -12148,7 +12148,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12169,10 +12169,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12183,10 +12183,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12212,20 +12212,20 @@
         <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>80</v>
@@ -12249,10 +12249,10 @@
         <v>180</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12270,7 +12270,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12291,10 +12291,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12334,14 +12334,14 @@
         <v>215</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12390,7 +12390,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12411,10 +12411,10 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12454,14 +12454,14 @@
         <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12471,7 +12471,7 @@
         <v>80</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>80</v>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12508,7 +12508,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12517,7 +12517,7 @@
         <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>103</v>
@@ -12529,10 +12529,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12543,10 +12543,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12572,16 +12572,16 @@
         <v>111</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12591,7 +12591,7 @@
         <v>80</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>80</v>
@@ -12630,7 +12630,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12651,10 +12651,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12665,10 +12665,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12694,16 +12694,16 @@
         <v>189</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12731,10 +12731,10 @@
         <v>240</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12752,7 +12752,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12761,7 +12761,7 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12776,7 +12776,7 @@
         <v>134</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12787,14 +12787,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12816,16 +12816,16 @@
         <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12853,10 +12853,10 @@
         <v>240</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12874,7 +12874,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12892,27 +12892,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12935,19 +12935,19 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12996,7 +12996,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -13017,10 +13017,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -13031,10 +13031,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13060,13 +13060,13 @@
         <v>189</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13095,10 +13095,10 @@
         <v>205</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -13116,7 +13116,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -13134,27 +13134,27 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13180,16 +13180,16 @@
         <v>189</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13217,10 +13217,10 @@
         <v>205</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -13238,7 +13238,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13259,10 +13259,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13391,10 +13391,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13511,10 +13511,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13631,13 +13631,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="C92" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>80</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13753,10 +13753,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13871,10 +13871,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13991,10 +13991,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14113,10 +14113,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14233,10 +14233,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14353,10 +14353,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14473,10 +14473,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14595,10 +14595,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14717,10 +14717,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14743,16 +14743,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14802,7 +14802,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14820,27 +14820,27 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14863,16 +14863,16 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14922,7 +14922,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14940,27 +14940,27 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14983,19 +14983,19 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -15044,7 +15044,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -15056,7 +15056,7 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
@@ -15065,10 +15065,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -15079,10 +15079,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15197,10 +15197,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15317,14 +15317,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15346,10 +15346,10 @@
         <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>140</v>
@@ -15404,7 +15404,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15439,10 +15439,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15465,13 +15465,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15522,7 +15522,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15531,7 +15531,7 @@
         <v>91</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>103</v>
@@ -15543,10 +15543,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>
@@ -15557,10 +15557,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15583,13 +15583,13 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15640,7 +15640,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15649,7 +15649,7 @@
         <v>91</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>103</v>
@@ -15661,10 +15661,10 @@
         <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>80</v>
@@ -15675,10 +15675,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15704,16 +15704,16 @@
         <v>189</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15741,10 +15741,10 @@
         <v>115</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15762,7 +15762,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15780,13 +15780,13 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>80</v>
@@ -15797,10 +15797,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15826,16 +15826,16 @@
         <v>189</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15863,10 +15863,10 @@
         <v>205</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15884,7 +15884,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15902,13 +15902,13 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15945,17 +15945,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -16004,7 +16004,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -16028,7 +16028,7 @@
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>80</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16068,10 +16068,10 @@
         <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16122,7 +16122,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -16143,10 +16143,10 @@
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>
@@ -16157,10 +16157,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16183,16 +16183,16 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16242,7 +16242,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -16263,10 +16263,10 @@
         <v>80</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>80</v>
@@ -16277,10 +16277,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16303,16 +16303,16 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16362,7 +16362,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16383,10 +16383,10 @@
         <v>80</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>80</v>
@@ -16397,10 +16397,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16423,19 +16423,19 @@
         <v>92</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>80</v>
@@ -16484,7 +16484,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16505,10 +16505,10 @@
         <v>80</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>80</v>
@@ -16519,10 +16519,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16637,10 +16637,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16757,14 +16757,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16786,10 +16786,10 @@
         <v>137</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>140</v>
@@ -16844,7 +16844,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -16879,10 +16879,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16908,13 +16908,13 @@
         <v>189</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>204</v>
@@ -16966,7 +16966,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>91</v>
@@ -16984,7 +16984,7 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>210</v>
@@ -17001,10 +17001,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17119,10 +17119,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17239,10 +17239,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17359,10 +17359,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>237</v>
@@ -17483,10 +17483,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17601,10 +17601,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17721,10 +17721,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17843,10 +17843,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17963,10 +17963,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18083,10 +18083,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18203,10 +18203,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18325,10 +18325,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>291</v>
@@ -18449,10 +18449,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18567,10 +18567,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18687,10 +18687,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18809,10 +18809,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18929,10 +18929,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19049,10 +19049,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19169,10 +19169,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19291,10 +19291,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>304</v>
@@ -19415,10 +19415,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19533,10 +19533,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19653,10 +19653,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19775,10 +19775,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19895,10 +19895,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20015,10 +20015,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20135,10 +20135,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20257,10 +20257,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>316</v>
@@ -20381,10 +20381,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20499,10 +20499,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20619,10 +20619,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20741,10 +20741,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20861,10 +20861,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20981,10 +20981,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21101,10 +21101,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21223,10 +21223,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>328</v>
@@ -21347,10 +21347,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21465,10 +21465,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21585,10 +21585,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21707,10 +21707,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21827,10 +21827,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21947,10 +21947,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22067,10 +22067,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22189,10 +22189,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>339</v>
@@ -22220,7 +22220,7 @@
         <v>227</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>229</v>
@@ -22313,10 +22313,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22431,10 +22431,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22551,10 +22551,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22673,10 +22673,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22793,10 +22793,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22913,10 +22913,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23033,10 +23033,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23155,10 +23155,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23277,10 +23277,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23303,7 +23303,7 @@
         <v>92</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>707</v>
+        <v>413</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>708</v>
@@ -23362,7 +23362,7 @@
         <v>419</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -23400,7 +23400,7 @@
         <v>711</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>426</v>
@@ -23425,7 +23425,7 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>708</v>
@@ -23486,7 +23486,7 @@
         <v>80</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -23785,19 +23785,19 @@
         <v>92</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L176" t="s" s="2">
         <v>718</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>80</v>
@@ -23846,7 +23846,7 @@
         <v>80</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -23867,10 +23867,10 @@
         <v>80</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>80</v>
@@ -23910,20 +23910,20 @@
         <v>111</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q177" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R177" t="s" s="2">
         <v>80</v>
@@ -23947,10 +23947,10 @@
         <v>180</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>80</v>
@@ -23968,7 +23968,7 @@
         <v>80</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -23989,10 +23989,10 @@
         <v>80</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>80</v>
@@ -24032,14 +24032,14 @@
         <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>80</v>
@@ -24088,7 +24088,7 @@
         <v>80</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -24109,10 +24109,10 @@
         <v>80</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>80</v>
@@ -24155,11 +24155,11 @@
         <v>725</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>80</v>
@@ -24169,7 +24169,7 @@
         <v>80</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>80</v>
@@ -24188,7 +24188,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>80</v>
@@ -24206,7 +24206,7 @@
         <v>80</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>78</v>
@@ -24215,7 +24215,7 @@
         <v>91</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>103</v>
@@ -24227,10 +24227,10 @@
         <v>80</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>80</v>
@@ -24273,13 +24273,13 @@
         <v>728</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>80</v>
@@ -24328,7 +24328,7 @@
         <v>80</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -24349,10 +24349,10 @@
         <v>80</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>80</v>
@@ -24401,7 +24401,7 @@
         <v>732</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>80</v>
@@ -24429,10 +24429,10 @@
         <v>240</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>80</v>
@@ -24459,7 +24459,7 @@
         <v>91</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>103</v>
@@ -24474,7 +24474,7 @@
         <v>134</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>80</v>
@@ -24492,7 +24492,7 @@
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24514,16 +24514,16 @@
         <v>189</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>80</v>
@@ -24551,10 +24551,10 @@
         <v>240</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>80</v>
@@ -24590,19 +24590,19 @@
         <v>80</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP182" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183">
@@ -24642,10 +24642,10 @@
         <v>736</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>80</v>
@@ -24715,10 +24715,10 @@
         <v>80</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>80</v>

--- a/children/StructureDefinition-klgateway-children-headcircum.xlsx
+++ b/children/StructureDefinition-klgateway-children-headcircum.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1301,8 +1301,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1344,10 +1344,6 @@
   </si>
   <si>
     <t>valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -2213,6 +2209,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -11727,7 +11727,7 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>414</v>
@@ -11823,10 +11823,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11941,10 +11941,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12061,10 +12061,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12087,19 +12087,19 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -12148,7 +12148,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12169,10 +12169,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12183,10 +12183,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12212,20 +12212,20 @@
         <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q80" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>80</v>
@@ -12249,28 +12249,28 @@
         <v>180</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z80" t="s" s="2">
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12291,10 +12291,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12334,14 +12334,14 @@
         <v>215</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12390,7 +12390,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12411,10 +12411,10 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12425,10 +12425,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12454,14 +12454,14 @@
         <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12471,7 +12471,7 @@
         <v>80</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>80</v>
@@ -12490,34 +12490,34 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF82" t="s" s="2">
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI82" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>103</v>
@@ -12529,10 +12529,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12543,10 +12543,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12572,16 +12572,16 @@
         <v>111</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M83" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12591,46 +12591,46 @@
         <v>80</v>
       </c>
       <c r="S83" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12651,10 +12651,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12665,10 +12665,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12694,16 +12694,16 @@
         <v>189</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12731,37 +12731,37 @@
         <v>240</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12776,7 +12776,7 @@
         <v>134</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12787,14 +12787,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12816,16 +12816,16 @@
         <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12853,11 +12853,11 @@
         <v>240</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12892,27 +12892,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>499</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12935,19 +12935,19 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12996,7 +12996,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -13017,10 +13017,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -13031,10 +13031,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13060,13 +13060,13 @@
         <v>189</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13095,11 +13095,11 @@
         <v>205</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -13134,27 +13134,27 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP87" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP87" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13180,16 +13180,16 @@
         <v>189</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13217,11 +13217,11 @@
         <v>205</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>524</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13259,10 +13259,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13273,10 +13273,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13391,10 +13391,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13511,10 +13511,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13631,13 +13631,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>80</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13753,10 +13753,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13871,10 +13871,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13991,10 +13991,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14113,10 +14113,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14233,10 +14233,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14353,10 +14353,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14473,10 +14473,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14595,10 +14595,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14717,10 +14717,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14743,16 +14743,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14802,7 +14802,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14820,27 +14820,27 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14863,16 +14863,16 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14922,7 +14922,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14940,27 +14940,27 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>565</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14983,19 +14983,19 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -15044,7 +15044,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -15056,19 +15056,19 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -15079,10 +15079,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15197,10 +15197,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15317,14 +15317,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15346,10 +15346,10 @@
         <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>140</v>
@@ -15404,7 +15404,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15439,10 +15439,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15465,13 +15465,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15522,7 +15522,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15531,7 +15531,7 @@
         <v>91</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>103</v>
@@ -15543,10 +15543,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>
@@ -15557,10 +15557,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15583,13 +15583,13 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15640,7 +15640,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15649,7 +15649,7 @@
         <v>91</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>103</v>
@@ -15661,10 +15661,10 @@
         <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>80</v>
@@ -15675,10 +15675,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15704,16 +15704,16 @@
         <v>189</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15741,11 +15741,11 @@
         <v>115</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15780,13 +15780,13 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AN109" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>80</v>
@@ -15797,10 +15797,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15826,16 +15826,16 @@
         <v>189</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15863,11 +15863,11 @@
         <v>205</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -15902,13 +15902,13 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AN110" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>80</v>
@@ -15919,10 +15919,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15945,17 +15945,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -16004,7 +16004,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -16028,7 +16028,7 @@
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>80</v>
@@ -16039,10 +16039,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16068,10 +16068,10 @@
         <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16122,7 +16122,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -16143,10 +16143,10 @@
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>
@@ -16157,10 +16157,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16183,16 +16183,16 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16242,7 +16242,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -16263,10 +16263,10 @@
         <v>80</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>80</v>
@@ -16277,10 +16277,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16303,16 +16303,16 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16362,7 +16362,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16383,10 +16383,10 @@
         <v>80</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>80</v>
@@ -16397,10 +16397,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16423,19 +16423,19 @@
         <v>92</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>80</v>
@@ -16484,7 +16484,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16505,10 +16505,10 @@
         <v>80</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>80</v>
@@ -16519,10 +16519,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16637,10 +16637,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16757,14 +16757,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16786,10 +16786,10 @@
         <v>137</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>140</v>
@@ -16844,7 +16844,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -16879,10 +16879,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16908,13 +16908,13 @@
         <v>189</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>204</v>
@@ -16966,7 +16966,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>91</v>
@@ -16984,7 +16984,7 @@
         <v>80</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>210</v>
@@ -17001,10 +17001,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17119,10 +17119,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17239,10 +17239,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17359,10 +17359,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>237</v>
@@ -17483,10 +17483,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17601,10 +17601,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17721,10 +17721,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B126" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17843,10 +17843,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17963,10 +17963,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18083,10 +18083,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18203,10 +18203,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18325,10 +18325,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>291</v>
@@ -18449,10 +18449,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18567,10 +18567,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18687,10 +18687,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18809,10 +18809,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18929,10 +18929,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19049,10 +19049,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19169,10 +19169,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19291,10 +19291,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>304</v>
@@ -19415,10 +19415,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19533,10 +19533,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19653,10 +19653,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19775,10 +19775,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19895,10 +19895,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20015,10 +20015,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20135,10 +20135,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20257,10 +20257,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>316</v>
@@ -20381,10 +20381,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20499,10 +20499,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20619,10 +20619,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20741,10 +20741,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20861,10 +20861,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20981,10 +20981,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21101,10 +21101,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21223,10 +21223,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>328</v>
@@ -21347,10 +21347,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21465,10 +21465,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21585,10 +21585,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21707,10 +21707,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21827,10 +21827,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21947,10 +21947,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22067,10 +22067,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22189,10 +22189,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>339</v>
@@ -22220,7 +22220,7 @@
         <v>227</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>229</v>
@@ -22313,10 +22313,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22431,10 +22431,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22551,10 +22551,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22673,10 +22673,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22793,10 +22793,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22913,10 +22913,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23033,10 +23033,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23155,10 +23155,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23277,10 +23277,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23303,7 +23303,7 @@
         <v>92</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>413</v>
+        <v>707</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>708</v>
@@ -23362,7 +23362,7 @@
         <v>419</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -23400,7 +23400,7 @@
         <v>711</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>426</v>
@@ -23425,7 +23425,7 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>708</v>
@@ -23486,7 +23486,7 @@
         <v>80</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
@@ -23785,19 +23785,19 @@
         <v>92</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L176" t="s" s="2">
         <v>718</v>
       </c>
       <c r="M176" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>80</v>
@@ -23846,7 +23846,7 @@
         <v>80</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -23867,10 +23867,10 @@
         <v>80</v>
       </c>
       <c r="AM176" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN176" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>80</v>
@@ -23910,20 +23910,20 @@
         <v>111</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q177" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q177" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="R177" t="s" s="2">
         <v>80</v>
@@ -23947,28 +23947,28 @@
         <v>180</v>
       </c>
       <c r="Y177" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z177" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z177" t="s" s="2">
+      <c r="AA177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF177" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -23989,10 +23989,10 @@
         <v>80</v>
       </c>
       <c r="AM177" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN177" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>80</v>
@@ -24032,14 +24032,14 @@
         <v>215</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>80</v>
@@ -24088,7 +24088,7 @@
         <v>80</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -24109,10 +24109,10 @@
         <v>80</v>
       </c>
       <c r="AM178" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN178" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>80</v>
@@ -24155,11 +24155,11 @@
         <v>725</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>80</v>
@@ -24169,7 +24169,7 @@
         <v>80</v>
       </c>
       <c r="S179" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>80</v>
@@ -24188,34 +24188,34 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF179" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AA179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF179" t="s" s="2">
+      <c r="AG179" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI179" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AG179" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH179" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI179" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>103</v>
@@ -24227,10 +24227,10 @@
         <v>80</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>80</v>
@@ -24273,13 +24273,13 @@
         <v>728</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>80</v>
@@ -24328,7 +24328,7 @@
         <v>80</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -24349,10 +24349,10 @@
         <v>80</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>80</v>
@@ -24401,7 +24401,7 @@
         <v>732</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>80</v>
@@ -24429,10 +24429,10 @@
         <v>240</v>
       </c>
       <c r="Y181" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z181" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z181" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>80</v>
@@ -24459,7 +24459,7 @@
         <v>91</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>103</v>
@@ -24474,7 +24474,7 @@
         <v>134</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>80</v>
@@ -24492,7 +24492,7 @@
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24514,16 +24514,16 @@
         <v>189</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N182" t="s" s="2">
+      <c r="O182" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>80</v>
@@ -24551,10 +24551,10 @@
         <v>240</v>
       </c>
       <c r="Y182" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z182" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>80</v>
@@ -24590,19 +24590,19 @@
         <v>80</v>
       </c>
       <c r="AL182" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM182" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM182" t="s" s="2">
+      <c r="AN182" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AN182" t="s" s="2">
+      <c r="AO182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP182" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP182" t="s" s="2">
-        <v>499</v>
       </c>
     </row>
     <row r="183">
@@ -24642,10 +24642,10 @@
         <v>736</v>
       </c>
       <c r="N183" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O183" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>80</v>
@@ -24715,10 +24715,10 @@
         <v>80</v>
       </c>
       <c r="AM183" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AN183" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>80</v>

--- a/children/StructureDefinition-klgateway-children-headcircum.xlsx
+++ b/children/StructureDefinition-klgateway-children-headcircum.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
